--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H2">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N2">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O2">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P2">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q2">
-        <v>4.530174700239903</v>
+        <v>19.42089319424467</v>
       </c>
       <c r="R2">
-        <v>4.530174700239903</v>
+        <v>174.788038748202</v>
       </c>
       <c r="S2">
-        <v>0.001620086732185182</v>
+        <v>0.005780540791270292</v>
       </c>
       <c r="T2">
-        <v>0.001620086732185182</v>
+        <v>0.005780540791270293</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H3">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N3">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O3">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P3">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q3">
-        <v>16.72212726049793</v>
+        <v>19.0470567188</v>
       </c>
       <c r="R3">
-        <v>16.72212726049793</v>
+        <v>171.4235104692</v>
       </c>
       <c r="S3">
-        <v>0.005980188028335901</v>
+        <v>0.005669270059591843</v>
       </c>
       <c r="T3">
-        <v>0.005980188028335901</v>
+        <v>0.005669270059591844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H4">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N4">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O4">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P4">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q4">
-        <v>41.4205101998994</v>
+        <v>55.462170874616</v>
       </c>
       <c r="R4">
-        <v>41.4205101998994</v>
+        <v>499.159537871544</v>
       </c>
       <c r="S4">
-        <v>0.01481285457085008</v>
+        <v>0.01650806365631681</v>
       </c>
       <c r="T4">
-        <v>0.01481285457085008</v>
+        <v>0.01650806365631682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H5">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N5">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O5">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P5">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q5">
-        <v>67.58352307240035</v>
+        <v>76.621993743443</v>
       </c>
       <c r="R5">
-        <v>67.58352307240035</v>
+        <v>689.597943690987</v>
       </c>
       <c r="S5">
-        <v>0.02416930389861757</v>
+        <v>0.02280618897969567</v>
       </c>
       <c r="T5">
-        <v>0.02416930389861757</v>
+        <v>0.02280618897969568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H6">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N6">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O6">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P6">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q6">
-        <v>276.7854544585602</v>
+        <v>323.034027479172</v>
       </c>
       <c r="R6">
-        <v>276.7854544585602</v>
+        <v>2907.306247312548</v>
       </c>
       <c r="S6">
-        <v>0.09898435978780526</v>
+        <v>0.09614961341556914</v>
       </c>
       <c r="T6">
-        <v>0.09898435978780526</v>
+        <v>0.09614961341556914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H7">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N7">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O7">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P7">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q7">
-        <v>212.8920639127345</v>
+        <v>303.811245253851</v>
       </c>
       <c r="R7">
-        <v>212.8920639127345</v>
+        <v>2734.301207284659</v>
       </c>
       <c r="S7">
-        <v>0.07613472569044104</v>
+        <v>0.09042803945582444</v>
       </c>
       <c r="T7">
-        <v>0.07613472569044104</v>
+        <v>0.09042803945582445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H8">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N8">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O8">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P8">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q8">
-        <v>4.95182142984505</v>
+        <v>19.44342334406022</v>
       </c>
       <c r="R8">
-        <v>4.95182142984505</v>
+        <v>174.990810096542</v>
       </c>
       <c r="S8">
-        <v>0.001770876562049006</v>
+        <v>0.005787246788195337</v>
       </c>
       <c r="T8">
-        <v>0.001770876562049006</v>
+        <v>0.005787246788195337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H9">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N9">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O9">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P9">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q9">
-        <v>18.27854191070042</v>
+        <v>19.06915318146666</v>
       </c>
       <c r="R9">
-        <v>18.27854191070042</v>
+        <v>171.6223786332</v>
       </c>
       <c r="S9">
-        <v>0.006536794978712044</v>
+        <v>0.005675846971503666</v>
       </c>
       <c r="T9">
-        <v>0.006536794978712044</v>
+        <v>0.005675846971503665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H10">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N10">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O10">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P10">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q10">
-        <v>45.27573076422761</v>
+        <v>55.52651245800266</v>
       </c>
       <c r="R10">
-        <v>45.27573076422761</v>
+        <v>499.7386121220239</v>
       </c>
       <c r="S10">
-        <v>0.01619156336227591</v>
+        <v>0.01652721463684184</v>
       </c>
       <c r="T10">
-        <v>0.01619156336227591</v>
+        <v>0.01652721463684184</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H11">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N11">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O11">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P11">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q11">
-        <v>73.87387021445704</v>
+        <v>76.71088280641966</v>
       </c>
       <c r="R11">
-        <v>73.87387021445704</v>
+        <v>690.3979452577769</v>
       </c>
       <c r="S11">
-        <v>0.0264188656970059</v>
+        <v>0.02283264640620511</v>
       </c>
       <c r="T11">
-        <v>0.0264188656970059</v>
+        <v>0.02283264640620511</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H12">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N12">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O12">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P12">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q12">
-        <v>302.5473045851228</v>
+        <v>323.408778782412</v>
       </c>
       <c r="R12">
-        <v>302.5473045851228</v>
+        <v>2910.679009041708</v>
       </c>
       <c r="S12">
-        <v>0.108197344793522</v>
+        <v>0.0962611564415924</v>
       </c>
       <c r="T12">
-        <v>0.108197344793522</v>
+        <v>0.09626115644159239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H13">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N13">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O13">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P13">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q13">
-        <v>232.7070265681351</v>
+        <v>304.163696235521</v>
       </c>
       <c r="R13">
-        <v>232.7070265681351</v>
+        <v>2737.473266119689</v>
       </c>
       <c r="S13">
-        <v>0.0832209773740813</v>
+        <v>0.09053294489225773</v>
       </c>
       <c r="T13">
-        <v>0.0832209773740813</v>
+        <v>0.09053294489225773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H14">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N14">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O14">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P14">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q14">
-        <v>1.583685943267937</v>
+        <v>6.151953931894221</v>
       </c>
       <c r="R14">
-        <v>1.583685943267937</v>
+        <v>55.367585387048</v>
       </c>
       <c r="S14">
-        <v>0.0005663597442501916</v>
+        <v>0.001831101190539929</v>
       </c>
       <c r="T14">
-        <v>0.0005663597442501916</v>
+        <v>0.001831101190539929</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H15">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N15">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O15">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P15">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q15">
-        <v>5.845822652840678</v>
+        <v>6.033533797866666</v>
       </c>
       <c r="R15">
-        <v>5.845822652840678</v>
+        <v>54.3018041808</v>
       </c>
       <c r="S15">
-        <v>0.002090590395569784</v>
+        <v>0.00179585397464685</v>
       </c>
       <c r="T15">
-        <v>0.002090590395569784</v>
+        <v>0.00179585397464685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H16">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N16">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O16">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P16">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q16">
-        <v>14.48003313494579</v>
+        <v>17.56874499905067</v>
       </c>
       <c r="R16">
-        <v>14.48003313494579</v>
+        <v>158.118704991456</v>
       </c>
       <c r="S16">
-        <v>0.0051783675279201</v>
+        <v>0.005229257279914111</v>
       </c>
       <c r="T16">
-        <v>0.0051783675279201</v>
+        <v>0.005229257279914112</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H17">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N17">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O17">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P17">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q17">
-        <v>23.62625783076682</v>
+        <v>24.27153946859867</v>
       </c>
       <c r="R17">
-        <v>23.62625783076682</v>
+        <v>218.443855217388</v>
       </c>
       <c r="S17">
-        <v>0.008449251822624983</v>
+        <v>0.007224313658588052</v>
       </c>
       <c r="T17">
-        <v>0.008449251822624983</v>
+        <v>0.007224313658588053</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H18">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N18">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O18">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P18">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q18">
-        <v>96.76033763197618</v>
+        <v>102.327448877328</v>
       </c>
       <c r="R18">
-        <v>96.76033763197618</v>
+        <v>920.947039895952</v>
       </c>
       <c r="S18">
-        <v>0.03460355274842308</v>
+        <v>0.0304573011336735</v>
       </c>
       <c r="T18">
-        <v>0.03460355274842308</v>
+        <v>0.0304573011336735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H19">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N19">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O19">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P19">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q19">
-        <v>74.42409870728436</v>
+        <v>96.23825053252401</v>
       </c>
       <c r="R19">
-        <v>74.42409870728436</v>
+        <v>866.1442547927161</v>
       </c>
       <c r="S19">
-        <v>0.0266156390975665</v>
+        <v>0.02864487885905298</v>
       </c>
       <c r="T19">
-        <v>0.0266156390975665</v>
+        <v>0.02864487885905299</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H20">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N20">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O20">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P20">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q20">
-        <v>1.923924634378349</v>
+        <v>7.584647199051999</v>
       </c>
       <c r="R20">
-        <v>1.923924634378349</v>
+        <v>68.26182479146799</v>
       </c>
       <c r="S20">
-        <v>0.0006880363297502697</v>
+        <v>0.002257535844669952</v>
       </c>
       <c r="T20">
-        <v>0.0006880363297502697</v>
+        <v>0.002257535844669952</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H21">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N21">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O21">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P21">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q21">
-        <v>7.101737726356994</v>
+        <v>7.438648879200001</v>
       </c>
       <c r="R21">
-        <v>7.101737726356994</v>
+        <v>66.94783991280001</v>
       </c>
       <c r="S21">
-        <v>0.0025397323121602</v>
+        <v>0.002214080106825129</v>
       </c>
       <c r="T21">
-        <v>0.0025397323121602</v>
+        <v>0.002214080106825129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H22">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N22">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O22">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P22">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q22">
-        <v>17.5909198243251</v>
+        <v>21.660229257744</v>
       </c>
       <c r="R22">
-        <v>17.5909198243251</v>
+        <v>194.942063319696</v>
       </c>
       <c r="S22">
-        <v>0.006290886709692056</v>
+        <v>0.006447069015845289</v>
       </c>
       <c r="T22">
-        <v>0.006290886709692056</v>
+        <v>0.006447069015845291</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H23">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N23">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O23">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P23">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q23">
-        <v>28.70211714135061</v>
+        <v>29.923999087962</v>
       </c>
       <c r="R23">
-        <v>28.70211714135061</v>
+        <v>269.315991791658</v>
       </c>
       <c r="S23">
-        <v>0.01026448696644404</v>
+        <v>0.008906742632061879</v>
       </c>
       <c r="T23">
-        <v>0.01026448696644404</v>
+        <v>0.008906742632061879</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H24">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N24">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O24">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P24">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q24">
-        <v>117.5483043164385</v>
+        <v>126.157901555448</v>
       </c>
       <c r="R24">
-        <v>117.5483043164385</v>
+        <v>1135.421113999032</v>
       </c>
       <c r="S24">
-        <v>0.04203777134772378</v>
+        <v>0.03755032730927349</v>
       </c>
       <c r="T24">
-        <v>0.04203777134772378</v>
+        <v>0.03755032730927349</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H25">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N25">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O25">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P25">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q25">
-        <v>90.41335341960861</v>
+        <v>118.650624732234</v>
       </c>
       <c r="R25">
-        <v>90.41335341960861</v>
+        <v>1067.855622590106</v>
       </c>
       <c r="S25">
-        <v>0.03233373633023925</v>
+        <v>0.03531582040611998</v>
       </c>
       <c r="T25">
-        <v>0.03233373633023925</v>
+        <v>0.03531582040611999</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H26">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N26">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O26">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P26">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q26">
-        <v>2.243266866687556</v>
+        <v>8.574914908574666</v>
       </c>
       <c r="R26">
-        <v>2.243266866687556</v>
+        <v>77.174234177172</v>
       </c>
       <c r="S26">
-        <v>0.0008022398975648061</v>
+        <v>0.002552284537838706</v>
       </c>
       <c r="T26">
-        <v>0.0008022398975648061</v>
+        <v>0.002552284537838706</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H27">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N27">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O27">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P27">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q27">
-        <v>8.280518193265536</v>
+        <v>8.4098547368</v>
       </c>
       <c r="R27">
-        <v>8.280518193265536</v>
+        <v>75.6886926312</v>
       </c>
       <c r="S27">
-        <v>0.002961289254433629</v>
+        <v>0.002503155126208952</v>
       </c>
       <c r="T27">
-        <v>0.002961289254433629</v>
+        <v>0.002503155126208952</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H28">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N28">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O28">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P28">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q28">
-        <v>20.51074501118195</v>
+        <v>24.488234971376</v>
       </c>
       <c r="R28">
-        <v>20.51074501118195</v>
+        <v>220.394114742384</v>
       </c>
       <c r="S28">
-        <v>0.007335078238393234</v>
+        <v>0.007288812092339822</v>
       </c>
       <c r="T28">
-        <v>0.007335078238393234</v>
+        <v>0.007288812092339823</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H29">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N29">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O29">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P29">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q29">
-        <v>33.46623211557404</v>
+        <v>33.830940209798</v>
       </c>
       <c r="R29">
-        <v>33.46623211557404</v>
+        <v>304.478461888182</v>
       </c>
       <c r="S29">
-        <v>0.0119682357114837</v>
+        <v>0.01006962594015592</v>
       </c>
       <c r="T29">
-        <v>0.0119682357114837</v>
+        <v>0.01006962594015592</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H30">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N30">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O30">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P30">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q30">
-        <v>137.059535283499</v>
+        <v>142.629346163592</v>
       </c>
       <c r="R30">
-        <v>137.059535283499</v>
+        <v>1283.664115472328</v>
       </c>
       <c r="S30">
-        <v>0.04901540212577336</v>
+        <v>0.04245297810376639</v>
       </c>
       <c r="T30">
-        <v>0.04901540212577336</v>
+        <v>0.04245297810376639</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H31">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N31">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O31">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P31">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q31">
-        <v>105.4205951772403</v>
+        <v>134.141903272086</v>
       </c>
       <c r="R31">
-        <v>105.4205951772403</v>
+        <v>1207.277129448774</v>
       </c>
       <c r="S31">
-        <v>0.03770064486401987</v>
+        <v>0.0399267292151485</v>
       </c>
       <c r="T31">
-        <v>0.03770064486401987</v>
+        <v>0.0399267292151485</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H32">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.916360003329949</v>
+        <v>3.467955333333333</v>
       </c>
       <c r="N32">
-        <v>0.916360003329949</v>
+        <v>10.403866</v>
       </c>
       <c r="O32">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="P32">
-        <v>0.0073075130094948</v>
+        <v>0.02435535092593897</v>
       </c>
       <c r="Q32">
-        <v>5.200792043369465</v>
+        <v>20.650883316184</v>
       </c>
       <c r="R32">
-        <v>5.200792043369465</v>
+        <v>185.857949845656</v>
       </c>
       <c r="S32">
-        <v>0.001859913743695345</v>
+        <v>0.006146641773424753</v>
       </c>
       <c r="T32">
-        <v>0.001859913743695345</v>
+        <v>0.006146641773424753</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H33">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.38253811520828</v>
+        <v>3.4012</v>
       </c>
       <c r="N33">
-        <v>3.38253811520828</v>
+        <v>10.2036</v>
       </c>
       <c r="O33">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292472</v>
       </c>
       <c r="P33">
-        <v>0.02697405080118546</v>
+        <v>0.02388653013292471</v>
       </c>
       <c r="Q33">
-        <v>19.19756127727342</v>
+        <v>20.2533705264</v>
       </c>
       <c r="R33">
-        <v>19.19756127727342</v>
+        <v>182.2803347376</v>
       </c>
       <c r="S33">
-        <v>0.006865455831973907</v>
+        <v>0.006028323894148272</v>
       </c>
       <c r="T33">
-        <v>0.006865455831973907</v>
+        <v>0.006028323894148273</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H34">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.37850665288868</v>
+        <v>9.903784</v>
       </c>
       <c r="N34">
-        <v>8.37850665288868</v>
+        <v>29.711352</v>
       </c>
       <c r="O34">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="P34">
-        <v>0.0668144027932627</v>
+        <v>0.06955399122250314</v>
       </c>
       <c r="Q34">
-        <v>47.5521307971926</v>
+        <v>58.97477565724801</v>
       </c>
       <c r="R34">
-        <v>47.5521307971926</v>
+        <v>530.772980915232</v>
       </c>
       <c r="S34">
-        <v>0.01700565238413133</v>
+        <v>0.01755357454124525</v>
       </c>
       <c r="T34">
-        <v>0.01700565238413133</v>
+        <v>0.01755357454124526</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H35">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>13.6707393258796</v>
+        <v>13.682257</v>
       </c>
       <c r="N35">
-        <v>13.6707393258796</v>
+        <v>41.046771</v>
       </c>
       <c r="O35">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303897</v>
       </c>
       <c r="P35">
-        <v>0.1090173131850531</v>
+        <v>0.09609009882303896</v>
       </c>
       <c r="Q35">
-        <v>77.58814445703447</v>
+        <v>81.47472088040401</v>
       </c>
       <c r="R35">
-        <v>77.58814445703447</v>
+        <v>733.272487923636</v>
       </c>
       <c r="S35">
-        <v>0.0277471690888769</v>
+        <v>0.02425058120633231</v>
       </c>
       <c r="T35">
-        <v>0.0277471690888769</v>
+        <v>0.02425058120633232</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H36">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>55.9879335240418</v>
+        <v>57.683628</v>
       </c>
       <c r="N36">
-        <v>55.9879335240418</v>
+        <v>173.050884</v>
       </c>
       <c r="O36">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="P36">
-        <v>0.4464757858428171</v>
+        <v>0.4051104664231506</v>
       </c>
       <c r="Q36">
-        <v>317.7589573294492</v>
+        <v>343.4928528728161</v>
       </c>
       <c r="R36">
-        <v>317.7589573294492</v>
+        <v>3091.435675855344</v>
       </c>
       <c r="S36">
-        <v>0.1136373550395697</v>
+        <v>0.1022390900192757</v>
       </c>
       <c r="T36">
-        <v>0.1136373550395697</v>
+        <v>0.1022390900192757</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H37">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>43.0636311632004</v>
+        <v>54.251049</v>
       </c>
       <c r="N37">
-        <v>43.0636311632004</v>
+        <v>162.753147</v>
       </c>
       <c r="O37">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="P37">
-        <v>0.3434109343681868</v>
+        <v>0.3810035624724437</v>
       </c>
       <c r="Q37">
-        <v>244.4072084096932</v>
+        <v>323.0526275558281</v>
       </c>
       <c r="R37">
-        <v>244.4072084096932</v>
+        <v>2907.473648002453</v>
       </c>
       <c r="S37">
-        <v>0.08740521101183886</v>
+        <v>0.09615514964403997</v>
       </c>
       <c r="T37">
-        <v>0.08740521101183886</v>
+        <v>0.09615514964404</v>
       </c>
     </row>
   </sheetData>
